--- a/学生登记表.xlsx
+++ b/学生登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>学
 生
@@ -124,12 +124,16 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>华晨培训学生登记表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +149,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,25 +302,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -340,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G12"/>
+      <selection activeCell="A21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -650,104 +666,106 @@
     <col min="7" max="7" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="54" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:7" ht="54" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="288" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="8.25" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="288" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -756,7 +774,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -765,7 +783,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -774,133 +792,143 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" hidden="1" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="15" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:G7"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学生登记表.xlsx
+++ b/学生登记表.xlsx
@@ -1,63 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+  <si>
+    <t>华晨培训学生登记表</t>
+  </si>
   <si>
     <t>学
 生
 基本情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>班级</t>
   </si>
   <si>
     <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>住址区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>家长姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学生关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系方式（电话、邮箱等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学
@@ -66,47 +59,6 @@
 况
 分
 析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：学科成绩情况分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否参加过辅导及情况：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以上课时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对老师要求：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询老师：                                      日期：    年    月    日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -122,30 +74,53 @@
 9.学习定位：
 其他说明：
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华晨培训学生登记表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
+    <t>成绩1</t>
+  </si>
+  <si>
+    <t>成绩2</t>
+  </si>
+  <si>
+    <t>成绩3</t>
+  </si>
+  <si>
+    <t>成绩4</t>
+  </si>
+  <si>
+    <t>备注：学科成绩情况分析</t>
+  </si>
+  <si>
+    <t>是否参加过辅导及情况：</t>
+  </si>
+  <si>
+    <t>可以上课时间：</t>
+  </si>
+  <si>
+    <t>对老师要求：</t>
+  </si>
+  <si>
+    <t>咨询老师：                                      日期：    年    月    日</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,20 +129,356 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -177,79 +488,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -259,7 +544,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -267,12 +552,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -281,50 +566,324 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -333,9 +892,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -343,26 +899,67 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -650,14 +1247,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:G21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
@@ -666,9 +1264,9 @@
     <col min="7" max="7" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>22</v>
+    <row r="1" ht="29.25" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -678,47 +1276,47 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" customHeight="1">
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="54" customHeight="1" spans="1:7">
       <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -742,7 +1340,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="8.25" customHeight="1">
+    <row r="7" ht="8.25" customHeight="1" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -751,176 +1349,169 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="288" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" hidden="1" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+    <row r="8" ht="288" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" hidden="1" customHeight="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" hidden="1" customHeight="1" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" hidden="1" customHeight="1" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" hidden="1" customHeight="1" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" hidden="1" customHeight="1" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="27.75" customHeight="1">
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="27.75" customHeight="1" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.75" customHeight="1">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="24.75" customHeight="1" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" customHeight="1">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="26.25" customHeight="1" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="37.5" customHeight="1" spans="1:7">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="49.5" customHeight="1" spans="1:7">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="41.25" customHeight="1" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="41.25" customHeight="1" spans="1:7">
+      <c r="A22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A7"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:G7"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:G13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -929,35 +1520,48 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:G7"/>
+    <mergeCell ref="B8:G13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>